--- a/findings/new_breast_db_test2.xlsx
+++ b/findings/new_breast_db_test2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="22104" windowHeight="9672" activeTab="1"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="22104" windowHeight="9672" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Findings" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30009,24 +30011,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" customWidth="1"/>
-    <col min="5" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="44.88671875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="24.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" customWidth="1"/>
     <col min="14" max="14" width="11.5546875" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
     <col min="16" max="24" width="11.5546875" customWidth="1"/>
